--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3006359.718886361</v>
+        <v>3004107.639175153</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548760.030614415</v>
+        <v>8548760.030614413</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>116.0501979381546</v>
+        <v>124.2781875329276</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>32.81348813952285</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.73003670622246</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.4668884434683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065926</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.28997231782644</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.0787639577046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>189.642334583715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>159.6155901915581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>137.3676443337307</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>65.38324202937362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>98.03921036659332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>112.3470522562617</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.39152647956317</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.76045942438991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>51.89407438975509</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6639636564717</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>93.62264337260697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>218.0507329335207</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2034.604709474942</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1665.64219253453</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1307.376493927779</v>
+        <v>953.6440892486874</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.5554336401428</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>749.348012783673</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.5554336401428</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415171</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1161.426274415171</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249501</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4811,13 +4811,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3302.08059704571</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3302.08059704571</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3048.550120319547</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.487232975976</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1383.192889845645</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1162.400310702115</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284095</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647281</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368213</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244855</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
         <v>382.4184417036842</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949679</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1492342949679</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>813.213051367061</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>663.0964119547252</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975141</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961526</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.15426255076</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.063992790047</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.687142285115</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368213</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>481.4479471244855</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420924</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2394.544826620912</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2211.689992275817</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1922.614765620014</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.930277414127</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.4712640439268</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>532.5350811160199</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2165.078743814364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7421,28 +7421,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647281</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
         <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949679</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>27.76311574357325</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>126.5688841976861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>80.03780599355755</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>186.7544012944544</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>48.39475227997585</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>34.08691039030742</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.44045370237413</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>129.6605885985413</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>14.48117232036657</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>185.7414866708166</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>73.62417772602086</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>34.08691039030725</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612025</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="G4" t="n">
         <v>10557.08828678119</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678118</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678114</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678123</v>
@@ -26522,46 +26522,46 @@
         <v>-828537.3049624775</v>
       </c>
       <c r="C6" t="n">
-        <v>500207.440765115</v>
+        <v>500207.4407651151</v>
       </c>
       <c r="D6" t="n">
-        <v>500207.4407651153</v>
+        <v>500207.4407651151</v>
       </c>
       <c r="E6" t="n">
-        <v>248982.5298184621</v>
+        <v>248947.7918930266</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.9916258175</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258177</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="H6" t="n">
-        <v>574394.9916258177</v>
+        <v>574360.2537003818</v>
       </c>
       <c r="I6" t="n">
-        <v>574394.9916258173</v>
+        <v>574360.2537003818</v>
       </c>
       <c r="J6" t="n">
-        <v>356863.7892285399</v>
+        <v>356829.0513031043</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.9916258178</v>
+        <v>574360.253700382</v>
       </c>
       <c r="L6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="M6" t="n">
-        <v>489339.9636903055</v>
+        <v>489305.2257648698</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.9916258177</v>
+        <v>574360.253700382</v>
       </c>
       <c r="O6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258176</v>
+        <v>574360.2537003821</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>265.8801721341072</v>
+        <v>257.6521825393341</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>192.8961672495143</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>335.5079019498311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.11776490862647</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>85.89778947034939</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963281</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>163.572382128305</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.118592441407</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078237</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>687.0167715190033</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>314.4610577451602</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>718.5832682008314</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>150.2061940096322</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>187.1368183553855</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244903</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>544.4205270745589</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>174.4792836591387</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>587.2415561174981</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>18.86448192629892</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
